--- a/Thesis/developer_states_exported.xlsx
+++ b/Thesis/developer_states_exported.xlsx
@@ -1491,7 +1491,7 @@
         <v>329</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>120</v>
@@ -1544,7 +1544,7 @@
         <v>330</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>109.3</v>
@@ -1600,7 +1600,7 @@
         <v>331</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>440</v>
@@ -1656,7 +1656,7 @@
         <v>331</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>440</v>
@@ -1712,7 +1712,7 @@
         <v>332</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>60</v>
@@ -1765,7 +1765,7 @@
         <v>332</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>40</v>
@@ -1818,7 +1818,7 @@
         <v>333</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>8.4</v>
@@ -1874,7 +1874,7 @@
         <v>333</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>18.15</v>
@@ -1930,7 +1930,7 @@
         <v>333</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>294.7</v>
@@ -1986,7 +1986,7 @@
         <v>333</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>150</v>
@@ -2042,7 +2042,7 @@
         <v>332</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>30</v>
@@ -2095,7 +2095,7 @@
         <v>330</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>299</v>
@@ -2151,7 +2151,7 @@
         <v>332</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>62.4</v>
@@ -2204,7 +2204,7 @@
         <v>332</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>43.2</v>
@@ -2257,7 +2257,7 @@
         <v>332</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>200</v>
@@ -2310,7 +2310,7 @@
         <v>332</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>500</v>
@@ -2363,7 +2363,7 @@
         <v>330</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D18">
         <v>95.09999999999999</v>
@@ -2419,7 +2419,7 @@
         <v>330</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <v>300</v>
@@ -2475,7 +2475,7 @@
         <v>330</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>300</v>
@@ -2531,7 +2531,7 @@
         <v>330</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>118.6</v>
@@ -2587,7 +2587,7 @@
         <v>330</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>200</v>
@@ -2643,7 +2643,7 @@
         <v>330</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D23">
         <v>90</v>
@@ -2699,7 +2699,7 @@
         <v>330</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>144</v>
@@ -2755,7 +2755,7 @@
         <v>330</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <v>100</v>
@@ -2811,7 +2811,7 @@
         <v>332</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D26">
         <v>20</v>
@@ -2864,7 +2864,7 @@
         <v>332</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>42.2</v>
@@ -2917,7 +2917,7 @@
         <v>329</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <v>20</v>
@@ -2970,7 +2970,7 @@
         <v>330</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D29">
         <v>150</v>
@@ -3026,7 +3026,7 @@
         <v>330</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <v>100</v>
@@ -3082,7 +3082,7 @@
         <v>333</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D31">
         <v>79.5</v>
@@ -3138,7 +3138,7 @@
         <v>330</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D32">
         <v>150</v>
@@ -3194,7 +3194,7 @@
         <v>330</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D33">
         <v>150</v>
@@ -3250,7 +3250,7 @@
         <v>332</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D34">
         <v>50</v>
@@ -3303,7 +3303,7 @@
         <v>332</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D35">
         <v>50</v>
@@ -3356,7 +3356,7 @@
         <v>330</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D36">
         <v>300</v>
@@ -3412,7 +3412,7 @@
         <v>332</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D37">
         <v>80</v>
@@ -3465,7 +3465,7 @@
         <v>333</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D38">
         <v>199</v>
@@ -3521,7 +3521,7 @@
         <v>330</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D39">
         <v>100</v>
@@ -3577,7 +3577,7 @@
         <v>330</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D40">
         <v>200</v>
@@ -3633,7 +3633,7 @@
         <v>330</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D41">
         <v>300</v>
@@ -3689,7 +3689,7 @@
         <v>330</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D42">
         <v>200</v>
@@ -3745,7 +3745,7 @@
         <v>332</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D43">
         <v>20</v>
@@ -3798,7 +3798,7 @@
         <v>333</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D44">
         <v>175</v>
@@ -3854,7 +3854,7 @@
         <v>332</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D45">
         <v>11</v>
@@ -3907,7 +3907,7 @@
         <v>332</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D46">
         <v>11</v>
@@ -3960,7 +3960,7 @@
         <v>330</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D47">
         <v>200</v>
@@ -4016,7 +4016,7 @@
         <v>333</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>255</v>
@@ -4072,7 +4072,7 @@
         <v>333</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D49">
         <v>180</v>
@@ -4128,7 +4128,7 @@
         <v>332</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D50">
         <v>52.2</v>
@@ -4181,7 +4181,7 @@
         <v>330</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D51">
         <v>100</v>
@@ -4237,7 +4237,7 @@
         <v>330</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D52">
         <v>300</v>
@@ -4293,7 +4293,7 @@
         <v>330</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D53">
         <v>150</v>
@@ -4349,7 +4349,7 @@
         <v>333</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D54">
         <v>150</v>
@@ -4405,7 +4405,7 @@
         <v>332</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D55">
         <v>50</v>
@@ -4458,7 +4458,7 @@
         <v>330</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D56">
         <v>300</v>
@@ -4514,7 +4514,7 @@
         <v>333</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D57">
         <v>300</v>
@@ -4570,7 +4570,7 @@
         <v>332</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D58">
         <v>150</v>
@@ -4623,7 +4623,7 @@
         <v>332</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D59">
         <v>150</v>
@@ -4676,7 +4676,7 @@
         <v>332</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D60">
         <v>100</v>
@@ -4729,7 +4729,7 @@
         <v>333</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D61">
         <v>150</v>
@@ -4785,7 +4785,7 @@
         <v>333</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D62">
         <v>299.97</v>
@@ -4841,7 +4841,7 @@
         <v>330</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D63">
         <v>260</v>
@@ -4897,7 +4897,7 @@
         <v>333</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D64">
         <v>212</v>
@@ -4953,7 +4953,7 @@
         <v>330</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D65">
         <v>200</v>
@@ -5009,7 +5009,7 @@
         <v>330</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D66">
         <v>255</v>
@@ -5065,7 +5065,7 @@
         <v>333</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D67">
         <v>190.89</v>
@@ -5121,7 +5121,7 @@
         <v>334</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D68">
         <v>11</v>
@@ -5177,7 +5177,7 @@
         <v>330</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D69">
         <v>300</v>
@@ -5233,7 +5233,7 @@
         <v>330</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D70">
         <v>200</v>
@@ -5289,7 +5289,7 @@
         <v>330</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D71">
         <v>346</v>
@@ -5345,7 +5345,7 @@
         <v>330</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D72">
         <v>100</v>
@@ -5401,7 +5401,7 @@
         <v>333</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D73">
         <v>100</v>
@@ -5457,7 +5457,7 @@
         <v>330</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D74">
         <v>100</v>
@@ -5513,7 +5513,7 @@
         <v>330</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D75">
         <v>150</v>
@@ -5569,7 +5569,7 @@
         <v>333</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D76">
         <v>200</v>
@@ -5625,7 +5625,7 @@
         <v>333</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D77">
         <v>200</v>
@@ -5681,7 +5681,7 @@
         <v>332</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D78">
         <v>200</v>
@@ -5734,7 +5734,7 @@
         <v>330</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D79">
         <v>100</v>
@@ -5790,7 +5790,7 @@
         <v>330</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D80">
         <v>140</v>
@@ -5846,7 +5846,7 @@
         <v>330</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D81">
         <v>100</v>
@@ -5902,7 +5902,7 @@
         <v>330</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D82">
         <v>210</v>
@@ -5958,7 +5958,7 @@
         <v>330</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D83">
         <v>450</v>
@@ -6014,7 +6014,7 @@
         <v>330</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D84">
         <v>180</v>
@@ -6070,7 +6070,7 @@
         <v>332</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D85">
         <v>55</v>
@@ -6123,7 +6123,7 @@
         <v>330</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D86">
         <v>125</v>
@@ -6179,7 +6179,7 @@
         <v>332</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D87">
         <v>300</v>
@@ -6232,7 +6232,7 @@
         <v>330</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D88">
         <v>140</v>
@@ -6288,7 +6288,7 @@
         <v>332</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D89">
         <v>50</v>
@@ -6341,7 +6341,7 @@
         <v>332</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D90">
         <v>300</v>
@@ -6394,7 +6394,7 @@
         <v>329</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D91">
         <v>800</v>
@@ -6447,7 +6447,7 @@
         <v>330</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D92">
         <v>300</v>
@@ -6503,7 +6503,7 @@
         <v>330</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D93">
         <v>300</v>
@@ -6559,7 +6559,7 @@
         <v>330</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D94">
         <v>300</v>
@@ -6615,7 +6615,7 @@
         <v>330</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D95">
         <v>300</v>
@@ -6671,7 +6671,7 @@
         <v>333</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D96">
         <v>255</v>
@@ -6727,7 +6727,7 @@
         <v>330</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D97">
         <v>54</v>
@@ -6783,7 +6783,7 @@
         <v>332</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D98">
         <v>25</v>
@@ -6836,7 +6836,7 @@
         <v>330</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D99">
         <v>100</v>
@@ -6892,7 +6892,7 @@
         <v>332</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D100">
         <v>500</v>
@@ -6945,7 +6945,7 @@
         <v>329</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D101">
         <v>200</v>
@@ -6998,7 +6998,7 @@
         <v>329</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D102">
         <v>300</v>
@@ -7051,7 +7051,7 @@
         <v>332</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D103">
         <v>50</v>
@@ -7104,7 +7104,7 @@
         <v>332</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D104">
         <v>52.2</v>
@@ -7157,7 +7157,7 @@
         <v>332</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D105">
         <v>11</v>
@@ -7210,7 +7210,7 @@
         <v>330</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D106">
         <v>100</v>
@@ -7266,7 +7266,7 @@
         <v>330</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D107">
         <v>100</v>
@@ -7322,7 +7322,7 @@
         <v>332</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D108">
         <v>35</v>
@@ -7375,7 +7375,7 @@
         <v>332</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D109">
         <v>35</v>
@@ -7428,7 +7428,7 @@
         <v>330</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D110">
         <v>80</v>
@@ -7484,7 +7484,7 @@
         <v>330</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D111">
         <v>75</v>
@@ -7540,7 +7540,7 @@
         <v>332</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D112">
         <v>80</v>
@@ -7593,7 +7593,7 @@
         <v>330</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D113">
         <v>250</v>
@@ -7649,7 +7649,7 @@
         <v>330</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D114">
         <v>126</v>
@@ -7705,7 +7705,7 @@
         <v>329</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D115">
         <v>20</v>
@@ -7758,7 +7758,7 @@
         <v>329</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D116">
         <v>20</v>
@@ -7811,7 +7811,7 @@
         <v>330</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D117">
         <v>126</v>
@@ -7867,7 +7867,7 @@
         <v>330</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D118">
         <v>19.99</v>
@@ -7923,7 +7923,7 @@
         <v>330</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D119">
         <v>18</v>
@@ -7979,7 +7979,7 @@
         <v>330</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D120">
         <v>23</v>
@@ -8035,7 +8035,7 @@
         <v>330</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D121">
         <v>50</v>
@@ -8091,7 +8091,7 @@
         <v>330</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D122">
         <v>150</v>
@@ -8147,7 +8147,7 @@
         <v>330</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D123">
         <v>70</v>
@@ -8203,7 +8203,7 @@
         <v>330</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D124">
         <v>150</v>
@@ -8259,7 +8259,7 @@
         <v>332</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D125">
         <v>20</v>
@@ -8312,7 +8312,7 @@
         <v>332</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D126">
         <v>240</v>
@@ -8365,7 +8365,7 @@
         <v>332</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D127">
         <v>50</v>
@@ -8418,7 +8418,7 @@
         <v>332</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D128">
         <v>20</v>
@@ -8471,7 +8471,7 @@
         <v>330</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D129">
         <v>140</v>
@@ -8527,7 +8527,7 @@
         <v>332</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D130">
         <v>11</v>
@@ -8580,7 +8580,7 @@
         <v>330</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D131">
         <v>65</v>
@@ -8636,7 +8636,7 @@
         <v>332</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D132">
         <v>30</v>
@@ -8689,7 +8689,7 @@
         <v>329</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D133">
         <v>40</v>
@@ -8742,7 +8742,7 @@
         <v>330</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D134">
         <v>50</v>
@@ -8798,7 +8798,7 @@
         <v>332</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D135">
         <v>300</v>
@@ -8851,7 +8851,7 @@
         <v>332</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D136">
         <v>50</v>
@@ -8904,7 +8904,7 @@
         <v>330</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D137">
         <v>98</v>
@@ -8960,7 +8960,7 @@
         <v>330</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D138">
         <v>206.6</v>
@@ -9016,7 +9016,7 @@
         <v>330</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D139">
         <v>300</v>
@@ -9072,7 +9072,7 @@
         <v>332</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D140">
         <v>100</v>
@@ -9125,7 +9125,7 @@
         <v>330</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D141">
         <v>148</v>
@@ -9181,7 +9181,7 @@
         <v>330</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D142">
         <v>12</v>
@@ -9237,7 +9237,7 @@
         <v>329</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D143">
         <v>100</v>
@@ -9290,7 +9290,7 @@
         <v>330</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D144">
         <v>15.75</v>
@@ -9346,7 +9346,7 @@
         <v>332</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D145">
         <v>75</v>
@@ -9399,7 +9399,7 @@
         <v>330</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D146">
         <v>50</v>
@@ -9455,7 +9455,7 @@
         <v>330</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D147">
         <v>20</v>
@@ -9511,7 +9511,7 @@
         <v>330</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D148">
         <v>20</v>
@@ -9567,7 +9567,7 @@
         <v>329</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D149">
         <v>95</v>
@@ -9620,7 +9620,7 @@
         <v>330</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D150">
         <v>19.9</v>
@@ -9676,7 +9676,7 @@
         <v>330</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D151">
         <v>20</v>
@@ -9732,7 +9732,7 @@
         <v>329</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D152">
         <v>126.5</v>
@@ -9785,7 +9785,7 @@
         <v>329</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D153">
         <v>250</v>
@@ -9838,7 +9838,7 @@
         <v>329</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D154">
         <v>202.4</v>
@@ -9891,7 +9891,7 @@
         <v>332</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D155">
         <v>197.2</v>
@@ -9944,7 +9944,7 @@
         <v>330</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D156">
         <v>77</v>
@@ -10000,7 +10000,7 @@
         <v>329</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D157">
         <v>150</v>
@@ -10053,7 +10053,7 @@
         <v>329</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D158">
         <v>53.9</v>
@@ -10106,7 +10106,7 @@
         <v>329</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D159">
         <v>40</v>
@@ -10159,7 +10159,7 @@
         <v>329</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D160">
         <v>20</v>
@@ -10212,7 +10212,7 @@
         <v>329</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D161">
         <v>20</v>
@@ -10265,7 +10265,7 @@
         <v>332</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D162">
         <v>20</v>
@@ -10318,7 +10318,7 @@
         <v>330</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D163">
         <v>60</v>
@@ -10374,7 +10374,7 @@
         <v>330</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D164">
         <v>100</v>
@@ -10430,7 +10430,7 @@
         <v>330</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D165">
         <v>100</v>
@@ -10486,7 +10486,7 @@
         <v>330</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D166">
         <v>15</v>
@@ -10542,7 +10542,7 @@
         <v>330</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D167">
         <v>15</v>
@@ -10598,7 +10598,7 @@
         <v>330</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D168">
         <v>30</v>
@@ -10654,7 +10654,7 @@
         <v>330</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D169">
         <v>30</v>
@@ -10710,7 +10710,7 @@
         <v>330</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D170">
         <v>174.8</v>
@@ -10766,7 +10766,7 @@
         <v>330</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D171">
         <v>50</v>
@@ -10822,7 +10822,7 @@
         <v>330</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D172">
         <v>60</v>
@@ -10878,7 +10878,7 @@
         <v>332</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D173">
         <v>100</v>
@@ -10931,7 +10931,7 @@
         <v>330</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D174">
         <v>80</v>
@@ -10987,7 +10987,7 @@
         <v>330</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D175">
         <v>20</v>
@@ -11043,7 +11043,7 @@
         <v>330</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D176">
         <v>55</v>
@@ -11099,7 +11099,7 @@
         <v>330</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D177">
         <v>20</v>
@@ -11155,7 +11155,7 @@
         <v>330</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D178">
         <v>20</v>
@@ -11211,7 +11211,7 @@
         <v>330</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D179">
         <v>41</v>
@@ -11267,7 +11267,7 @@
         <v>330</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D180">
         <v>25</v>
@@ -11323,7 +11323,7 @@
         <v>330</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D181">
         <v>65</v>
@@ -11379,7 +11379,7 @@
         <v>332</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D182">
         <v>50</v>
@@ -11432,7 +11432,7 @@
         <v>332</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D183">
         <v>75</v>
@@ -11485,7 +11485,7 @@
         <v>329</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D184">
         <v>150</v>
@@ -11538,7 +11538,7 @@
         <v>329</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D185">
         <v>150</v>
@@ -11591,7 +11591,7 @@
         <v>330</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D186">
         <v>200</v>
@@ -11647,7 +11647,7 @@
         <v>332</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D187">
         <v>50</v>
@@ -11700,7 +11700,7 @@
         <v>330</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D188">
         <v>46.8</v>
@@ -11756,7 +11756,7 @@
         <v>330</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D189">
         <v>150</v>
@@ -11812,7 +11812,7 @@
         <v>330</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D190">
         <v>150</v>
@@ -11868,7 +11868,7 @@
         <v>332</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D191">
         <v>75</v>
@@ -11921,7 +11921,7 @@
         <v>332</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D192">
         <v>20</v>
@@ -11974,7 +11974,7 @@
         <v>330</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D193">
         <v>200</v>
@@ -12030,7 +12030,7 @@
         <v>332</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D194">
         <v>11</v>
@@ -12083,7 +12083,7 @@
         <v>332</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D195">
         <v>11</v>
@@ -12136,7 +12136,7 @@
         <v>330</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D196">
         <v>127</v>
@@ -12192,7 +12192,7 @@
         <v>330</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D197">
         <v>53</v>
@@ -12248,7 +12248,7 @@
         <v>330</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D198">
         <v>60</v>
@@ -12304,7 +12304,7 @@
         <v>334</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D199">
         <v>569</v>
@@ -12360,7 +12360,7 @@
         <v>332</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D200">
         <v>75</v>
@@ -12413,7 +12413,7 @@
         <v>332</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D201">
         <v>122</v>
@@ -12466,7 +12466,7 @@
         <v>330</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D202">
         <v>314</v>
@@ -12522,7 +12522,7 @@
         <v>332</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D203">
         <v>74.5</v>
@@ -12575,7 +12575,7 @@
         <v>330</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D204">
         <v>20</v>
@@ -12631,7 +12631,7 @@
         <v>330</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D205">
         <v>70</v>
@@ -12687,7 +12687,7 @@
         <v>329</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D206">
         <v>127.86</v>
@@ -12740,7 +12740,7 @@
         <v>329</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D207">
         <v>130</v>
@@ -12793,7 +12793,7 @@
         <v>332</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D208">
         <v>11</v>
@@ -12846,7 +12846,7 @@
         <v>329</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D209">
         <v>150</v>
@@ -12899,7 +12899,7 @@
         <v>330</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D210">
         <v>82.5</v>
@@ -12955,7 +12955,7 @@
         <v>330</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D211">
         <v>18</v>
@@ -13011,7 +13011,7 @@
         <v>332</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D212">
         <v>75</v>
@@ -13064,7 +13064,7 @@
         <v>330</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D213">
         <v>150</v>
@@ -13120,7 +13120,7 @@
         <v>330</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D214">
         <v>90</v>
@@ -13176,7 +13176,7 @@
         <v>330</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D215">
         <v>36</v>
@@ -13232,7 +13232,7 @@
         <v>330</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D216">
         <v>80</v>
@@ -13288,7 +13288,7 @@
         <v>330</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D217">
         <v>500</v>
@@ -13344,7 +13344,7 @@
         <v>330</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D218">
         <v>72</v>
@@ -13400,7 +13400,7 @@
         <v>330</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D219">
         <v>54</v>
@@ -13456,7 +13456,7 @@
         <v>332</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D220">
         <v>100</v>
@@ -13509,7 +13509,7 @@
         <v>330</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D221">
         <v>100</v>
@@ -13565,7 +13565,7 @@
         <v>330</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D222">
         <v>30</v>
@@ -13621,7 +13621,7 @@
         <v>330</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D223">
         <v>70</v>
@@ -13677,7 +13677,7 @@
         <v>330</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D224">
         <v>63</v>
@@ -13733,7 +13733,7 @@
         <v>330</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D225">
         <v>94</v>
@@ -13789,7 +13789,7 @@
         <v>330</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D226">
         <v>150</v>
@@ -13845,7 +13845,7 @@
         <v>330</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D227">
         <v>117</v>
@@ -13901,7 +13901,7 @@
         <v>332</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D228">
         <v>20</v>
@@ -13954,7 +13954,7 @@
         <v>330</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D229">
         <v>90</v>
@@ -14010,7 +14010,7 @@
         <v>330</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D230">
         <v>107</v>
@@ -14066,7 +14066,7 @@
         <v>330</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D231">
         <v>118.56</v>
@@ -14122,7 +14122,7 @@
         <v>330</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D232">
         <v>75</v>
@@ -14178,7 +14178,7 @@
         <v>330</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D233">
         <v>75</v>
@@ -14234,7 +14234,7 @@
         <v>332</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D234">
         <v>26</v>
@@ -14287,7 +14287,7 @@
         <v>332</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D235">
         <v>26</v>
@@ -14340,7 +14340,7 @@
         <v>330</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D236">
         <v>90</v>
@@ -14396,7 +14396,7 @@
         <v>330</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D237">
         <v>150</v>
@@ -14452,7 +14452,7 @@
         <v>330</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D238">
         <v>20</v>
@@ -14508,7 +14508,7 @@
         <v>330</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D239">
         <v>15</v>
@@ -14564,7 +14564,7 @@
         <v>330</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D240">
         <v>15</v>
@@ -14620,7 +14620,7 @@
         <v>330</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D241">
         <v>15</v>
@@ -14676,7 +14676,7 @@
         <v>330</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D242">
         <v>10</v>
@@ -14732,7 +14732,7 @@
         <v>330</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D243">
         <v>150</v>
@@ -14788,7 +14788,7 @@
         <v>332</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D244">
         <v>11</v>
@@ -14841,7 +14841,7 @@
         <v>329</v>
       </c>
       <c r="C245">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D245">
         <v>80</v>
@@ -14894,7 +14894,7 @@
         <v>329</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D246">
         <v>20</v>
@@ -14947,7 +14947,7 @@
         <v>330</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D247">
         <v>60</v>
@@ -15003,7 +15003,7 @@
         <v>330</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D248">
         <v>102</v>
@@ -15059,7 +15059,7 @@
         <v>332</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D249">
         <v>75</v>
@@ -15112,7 +15112,7 @@
         <v>329</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D250">
         <v>50</v>
@@ -15165,7 +15165,7 @@
         <v>330</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D251">
         <v>150</v>
@@ -15221,7 +15221,7 @@
         <v>332</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D252">
         <v>75</v>
@@ -15274,7 +15274,7 @@
         <v>330</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D253">
         <v>62</v>
@@ -15330,7 +15330,7 @@
         <v>330</v>
       </c>
       <c r="C254">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D254">
         <v>60</v>
@@ -15386,7 +15386,7 @@
         <v>332</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D255">
         <v>100</v>
@@ -15439,7 +15439,7 @@
         <v>332</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D256">
         <v>100</v>
@@ -15492,7 +15492,7 @@
         <v>330</v>
       </c>
       <c r="C257">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D257">
         <v>20</v>
@@ -15548,7 +15548,7 @@
         <v>329</v>
       </c>
       <c r="C258">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D258">
         <v>62.5</v>
@@ -15601,7 +15601,7 @@
         <v>330</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D259">
         <v>14.2</v>
@@ -15657,7 +15657,7 @@
         <v>330</v>
       </c>
       <c r="C260">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D260">
         <v>128</v>
@@ -15713,7 +15713,7 @@
         <v>332</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D261">
         <v>160</v>
@@ -15766,7 +15766,7 @@
         <v>330</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D262">
         <v>20</v>
@@ -15822,7 +15822,7 @@
         <v>330</v>
       </c>
       <c r="C263">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D263">
         <v>150</v>
@@ -15878,7 +15878,7 @@
         <v>329</v>
       </c>
       <c r="C264">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D264">
         <v>150</v>
@@ -15931,7 +15931,7 @@
         <v>330</v>
       </c>
       <c r="C265">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D265">
         <v>500</v>
@@ -15987,7 +15987,7 @@
         <v>330</v>
       </c>
       <c r="C266">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D266">
         <v>50</v>
@@ -16043,7 +16043,7 @@
         <v>332</v>
       </c>
       <c r="C267">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D267">
         <v>11</v>
@@ -16096,7 +16096,7 @@
         <v>332</v>
       </c>
       <c r="C268">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D268">
         <v>11</v>
@@ -16149,7 +16149,7 @@
         <v>332</v>
       </c>
       <c r="C269">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D269">
         <v>127.5</v>
@@ -16202,7 +16202,7 @@
         <v>332</v>
       </c>
       <c r="C270">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D270">
         <v>100</v>
@@ -16255,7 +16255,7 @@
         <v>332</v>
       </c>
       <c r="C271">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D271">
         <v>100</v>
@@ -16308,7 +16308,7 @@
         <v>331</v>
       </c>
       <c r="C272">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D272">
         <v>833</v>
@@ -16364,7 +16364,7 @@
         <v>331</v>
       </c>
       <c r="C273">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D273">
         <v>836</v>
@@ -16420,7 +16420,7 @@
         <v>331</v>
       </c>
       <c r="C274">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D274">
         <v>820</v>
@@ -16476,7 +16476,7 @@
         <v>331</v>
       </c>
       <c r="C275">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D275">
         <v>800.1</v>
@@ -16532,7 +16532,7 @@
         <v>331</v>
       </c>
       <c r="C276">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D276">
         <v>800.1</v>
@@ -16588,7 +16588,7 @@
         <v>329</v>
       </c>
       <c r="C277">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D277">
         <v>75</v>
@@ -16641,7 +16641,7 @@
         <v>329</v>
       </c>
       <c r="C278">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D278">
         <v>79</v>
@@ -16694,7 +16694,7 @@
         <v>330</v>
       </c>
       <c r="C279">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D279">
         <v>260</v>
@@ -16750,7 +16750,7 @@
         <v>330</v>
       </c>
       <c r="C280">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D280">
         <v>90</v>
@@ -16806,7 +16806,7 @@
         <v>330</v>
       </c>
       <c r="C281">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D281">
         <v>250</v>
@@ -16862,7 +16862,7 @@
         <v>330</v>
       </c>
       <c r="C282">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D282">
         <v>167</v>
@@ -16918,7 +16918,7 @@
         <v>329</v>
       </c>
       <c r="C283">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D283">
         <v>20</v>
@@ -16971,7 +16971,7 @@
         <v>329</v>
       </c>
       <c r="C284">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D284">
         <v>20</v>
@@ -17024,7 +17024,7 @@
         <v>329</v>
       </c>
       <c r="C285">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D285">
         <v>20</v>
@@ -17077,7 +17077,7 @@
         <v>330</v>
       </c>
       <c r="C286">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D286">
         <v>125</v>
@@ -17133,7 +17133,7 @@
         <v>332</v>
       </c>
       <c r="C287">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D287">
         <v>11</v>
@@ -17186,7 +17186,7 @@
         <v>330</v>
       </c>
       <c r="C288">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D288">
         <v>150</v>
@@ -17242,7 +17242,7 @@
         <v>329</v>
       </c>
       <c r="C289">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D289">
         <v>20</v>
@@ -17295,7 +17295,7 @@
         <v>330</v>
       </c>
       <c r="C290">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D290">
         <v>80</v>
@@ -17351,7 +17351,7 @@
         <v>330</v>
       </c>
       <c r="C291">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D291">
         <v>188.5</v>
@@ -17407,7 +17407,7 @@
         <v>330</v>
       </c>
       <c r="C292">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D292">
         <v>45</v>
@@ -17463,7 +17463,7 @@
         <v>330</v>
       </c>
       <c r="C293">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D293">
         <v>55</v>
@@ -17519,7 +17519,7 @@
         <v>332</v>
       </c>
       <c r="C294">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D294">
         <v>50</v>
@@ -17572,7 +17572,7 @@
         <v>332</v>
       </c>
       <c r="C295">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D295">
         <v>200</v>
@@ -17625,7 +17625,7 @@
         <v>329</v>
       </c>
       <c r="C296">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D296">
         <v>106</v>
@@ -17678,7 +17678,7 @@
         <v>330</v>
       </c>
       <c r="C297">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D297">
         <v>65</v>
@@ -17734,7 +17734,7 @@
         <v>330</v>
       </c>
       <c r="C298">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D298">
         <v>90</v>
@@ -17790,7 +17790,7 @@
         <v>330</v>
       </c>
       <c r="C299">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D299">
         <v>100</v>
@@ -17846,7 +17846,7 @@
         <v>330</v>
       </c>
       <c r="C300">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D300">
         <v>250</v>
@@ -17902,7 +17902,7 @@
         <v>330</v>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D301">
         <v>225</v>
@@ -17958,7 +17958,7 @@
         <v>330</v>
       </c>
       <c r="C302">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D302">
         <v>222</v>
@@ -18014,7 +18014,7 @@
         <v>330</v>
       </c>
       <c r="C303">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D303">
         <v>150</v>
@@ -18070,7 +18070,7 @@
         <v>330</v>
       </c>
       <c r="C304">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D304">
         <v>50</v>
@@ -18126,7 +18126,7 @@
         <v>329</v>
       </c>
       <c r="C305">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D305">
         <v>120</v>
@@ -18179,7 +18179,7 @@
         <v>330</v>
       </c>
       <c r="C306">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D306">
         <v>82</v>
@@ -18235,7 +18235,7 @@
         <v>330</v>
       </c>
       <c r="C307">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D307">
         <v>70</v>
@@ -18291,7 +18291,7 @@
         <v>330</v>
       </c>
       <c r="C308">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D308">
         <v>57</v>
@@ -18347,7 +18347,7 @@
         <v>332</v>
       </c>
       <c r="C309">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D309">
         <v>22</v>
@@ -18400,7 +18400,7 @@
         <v>330</v>
       </c>
       <c r="C310">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D310">
         <v>98</v>
@@ -18456,7 +18456,7 @@
         <v>330</v>
       </c>
       <c r="C311">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D311">
         <v>64.2</v>
@@ -18512,7 +18512,7 @@
         <v>330</v>
       </c>
       <c r="C312">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D312">
         <v>120</v>
